--- a/Entregáveis 3ª Sprint/BurndownSprint3.xlsx
+++ b/Entregáveis 3ª Sprint/BurndownSprint3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\coral-life\Entregáveis 3ª Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -675,13 +675,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>194</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -790,19 +790,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>194</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.5</c:v>
+                  <c:v>80.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,7 +2414,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -2481,13 +2481,13 @@
         <v>69</v>
       </c>
       <c r="B4" s="19">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" s="22">
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -2593,7 +2593,7 @@
         <v>78</v>
       </c>
       <c r="B11" s="19">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" s="22">
         <v>0</v>
@@ -2658,15 +2658,15 @@
       </c>
       <c r="B15" s="26">
         <f>SUM(B2:B14)</f>
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C15" s="26">
         <f>IF(SUM(C2:C14)&gt;0,B15-(SUM(C2:C14)))</f>
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D15" s="26">
         <f>IF(SUM(D2:D14)&gt;0,C15-(SUM(D2:D14)))</f>
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E15" s="26" t="b">
         <f>IF(SUM(E2:E14)&gt;0,D15-(SUM(E2:E14)))</f>
@@ -2683,21 +2683,21 @@
       </c>
       <c r="B16" s="27">
         <f>SUM(B2:B14)</f>
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C16" s="28">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D16" s="28">
         <v>132</v>
       </c>
       <c r="E16" s="28">
         <f>D16-($B$16/COUNTA($C$1:$F$1))</f>
-        <v>83.5</v>
+        <v>80.25</v>
       </c>
       <c r="F16" s="28">
         <f>E16-($B$16/COUNTA($C$1:$F$1))</f>
-        <v>35</v>
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
